--- a/documents/report/Gráfico-EP03.xlsx
+++ b/documents/report/Gráfico-EP03.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27140" windowHeight="17520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29160" windowHeight="19860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>760.0</c:v>
+                  <c:v>209.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>124.64</c:v>
@@ -489,7 +489,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1543.0</c:v>
+                  <c:v>423.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>249.1</c:v>
@@ -564,7 +564,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3658.0</c:v>
+                  <c:v>862.0599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>458.74</c:v>
@@ -639,7 +639,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5332.0</c:v>
+                  <c:v>1281.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>675.9299999999999</c:v>
@@ -714,7 +714,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6130.0</c:v>
+                  <c:v>1678.29</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>921.13</c:v>
@@ -789,10 +789,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>11908.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1791.31</c:v>
+                  <c:v>3583.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1907.58</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1172.55</c:v>
@@ -823,12 +823,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2111201512"/>
-        <c:axId val="-2126618136"/>
+        <c:axId val="-2122636040"/>
+        <c:axId val="-2122665400"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2111201512"/>
+        <c:axId val="-2122636040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +837,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126618136"/>
+        <c:crossAx val="-2122665400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -845,7 +845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126618136"/>
+        <c:axId val="-2122665400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,7 +875,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111201512"/>
+        <c:crossAx val="-2122636040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1006,22 +1006,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.097560975609756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.12412177985949</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.74953866800872</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.135713427094602</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.77199504337051</c:v>
+                  <c:v>1.683648908857509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.071574941451991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.52038248616004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.522538766678687</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.25046468401487</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.32608695652174</c:v>
+                  <c:v>2.851222826086956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1081,22 +1081,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.194299478121237</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.83567415730337</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.683087543144022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.20435156405</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.05538439492728</c:v>
+                  <c:v>1.700923323966279</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.975421348314606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.658926890492626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.802063355598174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.035752668911657</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.54767250411615</c:v>
+                  <c:v>3.170932495135458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,22 +1156,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.974015782360377</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.2921511627907</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.89554811225651</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.85081408557365</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.96151938204238</c:v>
+                  <c:v>1.879190827048001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.132485465116279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.80335598842314</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.264142370314274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0545673587981</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.74567864121449</c:v>
+                  <c:v>3.239365699684352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1231,22 +1231,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.88839080969923</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.77665871543422</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.37469067326564</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.49999015379768</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.46697374266408</c:v>
+                  <c:v>1.895669669936236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.830064493329799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.733467019370253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.523266576081605</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.99595501414576</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.91385114679455</c:v>
+                  <c:v>3.10334471651045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1306,22 +1306,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.654869562385331</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.13709050619305</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.40097537036469</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.18954443317624</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.83115414516927</c:v>
+                  <c:v>1.821990381379393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.775363397330952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.573827561880809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.337290461134642</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.965386246377835</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.72218610165602</c:v>
+                  <c:v>3.209335679045396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1381,22 +1381,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.647648927321346</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.15564368257217</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.21777556589041</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.44581787423826</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.67867135375565</c:v>
+                  <c:v>1.878332756686482</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.055792929939022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.074488167355975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.44400123031969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.213169883061913</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.26680606674173</c:v>
+                  <c:v>3.390137286997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1412,12 +1412,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2127216456"/>
-        <c:axId val="-2127296360"/>
+        <c:axId val="-2122758776"/>
+        <c:axId val="-2122846280"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2127216456"/>
+        <c:axId val="-2122758776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,7 +1426,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127296360"/>
+        <c:crossAx val="-2122846280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1434,7 +1434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127296360"/>
+        <c:axId val="-2122846280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,7 +1464,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127216456"/>
+        <c:crossAx val="-2122758776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1589,22 +1589,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.048780487804878</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.781030444964871</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.124923111334787</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.141964178386825</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.177199504337051</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.645380434782609</c:v>
+                  <c:v>0.841824454428755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.767893735362998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.586730414360007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.315317345834836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.325046468401487</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.178201426630435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1658,22 +1658,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.097149739060618</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.708918539325842</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.613847923857337</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.27554394550625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.105538439492728</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.721729531507259</c:v>
+                  <c:v>0.850461661983139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.743855337078652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.443154481748771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.350257919449772</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.303575266891166</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.198183280945966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1727,22 +1727,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.987007891180189</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.323037790697674</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.982591352042752</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.731351760696706</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.296151938204238</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.859104915075906</c:v>
+                  <c:v>0.939595413524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78312136627907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.467225998070523</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.408017796289284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30545673587981</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.202460356230272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1796,22 +1796,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.944195404849615</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.944164678858556</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.895781778877606</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.31249876922471</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.246697374266408</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.807115696674659</c:v>
+                  <c:v>0.947834834968118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70751612333245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.455577836561709</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.315408322010201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.299595501414576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.193959044781903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1865,22 +1865,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.327434781192665</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.534272626548263</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.566829228394115</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.52369305414703</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.083115414516927</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.732636631353501</c:v>
+                  <c:v>0.910995190689696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.693840849332738</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.428971260313468</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41716130764183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.296538624637784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.200583479940337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1934,22 +1934,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.323824463660673</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.538910920643043</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.702962594315068</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.430727234279782</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.067867135375565</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.704175379171358</c:v>
+                  <c:v>0.939166378343241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.763948232484755</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.512414694559329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.430500153789961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.321316988306191</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.211883580437313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1965,12 +1965,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2127472856"/>
-        <c:axId val="2109248744"/>
+        <c:axId val="-2122355528"/>
+        <c:axId val="-2122934168"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2127472856"/>
+        <c:axId val="-2122355528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1979,7 +1979,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109248744"/>
+        <c:crossAx val="-2122934168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1987,7 +1987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109248744"/>
+        <c:axId val="-2122934168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,7 +2017,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127472856"/>
+        <c:crossAx val="-2122355528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2459,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2574,22 +2574,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="4">
-        <v>760</v>
+        <v>209.85</v>
       </c>
       <c r="D11" s="4">
-        <v>1543</v>
+        <v>423.7</v>
       </c>
       <c r="E11" s="4">
-        <v>3658</v>
+        <v>862.06</v>
       </c>
       <c r="F11" s="4">
-        <v>5332</v>
+        <v>1281.3399999999999</v>
       </c>
       <c r="G11" s="4">
-        <v>6130</v>
+        <v>1678.29</v>
       </c>
       <c r="H11" s="4">
-        <v>11908</v>
+        <v>3583.07</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="2" t="s">
@@ -2640,7 +2640,7 @@
         <v>921.13</v>
       </c>
       <c r="H12" s="4">
-        <v>1791.31</v>
+        <v>1907.58</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="2" t="s">
@@ -2648,54 +2648,54 @@
       </c>
       <c r="K12" s="4">
         <f>C11/C12</f>
-        <v>6.0975609756097562</v>
+        <v>1.6836489088575095</v>
       </c>
       <c r="L12" s="4">
         <f>D11/D12</f>
-        <v>6.1942994781212368</v>
+        <v>1.7009233239662787</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" ref="M12:P12" si="0">E11/E12</f>
-        <v>7.9740157823603779</v>
+        <v>1.8791908270480009</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>7.8883908096992297</v>
+        <v>1.8956696699362361</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="0"/>
-        <v>6.6548695623853309</v>
+        <v>1.8219903813793927</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="0"/>
-        <v>6.6476489273213462</v>
+        <v>1.8783327566864825</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" ref="T11:T17" si="1">K12/S4</f>
-        <v>3.0487804878048781</v>
+        <f t="shared" ref="T12:T17" si="1">K12/S4</f>
+        <v>0.84182445442875475</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" ref="U11:U17" si="2">L12/S4</f>
-        <v>3.0971497390606184</v>
+        <f t="shared" ref="U12:U17" si="2">L12/S4</f>
+        <v>0.85046166198313933</v>
       </c>
       <c r="V12" s="4">
-        <f t="shared" ref="V11:V17" si="3">M12/S4</f>
-        <v>3.9870078911801889</v>
+        <f t="shared" ref="V12:V17" si="3">M12/S4</f>
+        <v>0.93959541352400044</v>
       </c>
       <c r="W12" s="4">
-        <f t="shared" ref="W11:W17" si="4">N12/S4</f>
-        <v>3.9441954048496148</v>
+        <f t="shared" ref="W12:W17" si="4">N12/S4</f>
+        <v>0.94783483496811805</v>
       </c>
       <c r="X12" s="4">
-        <f t="shared" ref="X11:X17" si="5">O12/S4</f>
-        <v>3.3274347811926654</v>
+        <f t="shared" ref="X12:X17" si="5">O12/S4</f>
+        <v>0.91099519068969637</v>
       </c>
       <c r="Y12" s="4">
-        <f t="shared" ref="Y11:Y17" si="6">P12/S4</f>
-        <v>3.3238244636606731</v>
+        <f t="shared" ref="Y12:Y17" si="6">P12/S4</f>
+        <v>0.93916637834324124</v>
       </c>
     </row>
     <row r="13" spans="2:25" s="3" customFormat="1">
@@ -2726,54 +2726,54 @@
       </c>
       <c r="K13" s="4">
         <f>C11/C13</f>
-        <v>11.124121779859486</v>
+        <v>3.0715749414519911</v>
       </c>
       <c r="L13" s="4">
         <f>D11/D13</f>
-        <v>10.835674157303369</v>
+        <v>2.9754213483146064</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" ref="M13:P13" si="7">E11/E13</f>
-        <v>13.292151162790699</v>
+        <v>3.1324854651162788</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" si="7"/>
-        <v>11.776658715434225</v>
+        <v>2.8300644933297994</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" si="7"/>
-        <v>10.137090506193051</v>
+        <v>2.7753633973309517</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="7"/>
-        <v>10.155643682572173</v>
+        <v>3.0557929299390221</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T13" s="4">
         <f t="shared" si="1"/>
-        <v>2.7810304449648715</v>
+        <v>0.76789373536299776</v>
       </c>
       <c r="U13" s="4">
         <f t="shared" si="2"/>
-        <v>2.7089185393258424</v>
+        <v>0.74385533707865159</v>
       </c>
       <c r="V13" s="4">
         <f t="shared" si="3"/>
-        <v>3.3230377906976747</v>
+        <v>0.7831213662790697</v>
       </c>
       <c r="W13" s="4">
         <f t="shared" si="4"/>
-        <v>2.9441646788585563</v>
+        <v>0.70751612333244984</v>
       </c>
       <c r="X13" s="4">
         <f t="shared" si="5"/>
-        <v>2.5342726265482627</v>
+        <v>0.69384084933273793</v>
       </c>
       <c r="Y13" s="4">
         <f t="shared" si="6"/>
-        <v>2.5389109206430431</v>
+        <v>0.76394823248475552</v>
       </c>
     </row>
     <row r="14" spans="2:25" s="3" customFormat="1">
@@ -2804,54 +2804,54 @@
       </c>
       <c r="K14" s="4">
         <f>C11/C14</f>
-        <v>12.749538668008723</v>
+        <v>3.5203824861600403</v>
       </c>
       <c r="L14" s="4">
         <f>D11/D14</f>
-        <v>9.6830875431440226</v>
+        <v>2.6589268904926264</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" ref="M14:P14" si="8">E11/E14</f>
-        <v>11.895548112256513</v>
+        <v>2.8033559884231405</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" si="8"/>
-        <v>11.374690673265638</v>
+        <v>2.7334670193702535</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="8"/>
-        <v>9.4009753703646908</v>
+        <v>2.5738275618808086</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" si="8"/>
-        <v>10.217775565890408</v>
+        <v>3.0744881673559745</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T14" s="4">
         <f t="shared" si="1"/>
-        <v>2.1249231113347871</v>
+        <v>0.58673041436000672</v>
       </c>
       <c r="U14" s="4">
         <f t="shared" si="2"/>
-        <v>1.6138479238573371</v>
+        <v>0.44315448174877109</v>
       </c>
       <c r="V14" s="4">
         <f t="shared" si="3"/>
-        <v>1.9825913520427523</v>
+        <v>0.4672259980705234</v>
       </c>
       <c r="W14" s="4">
         <f t="shared" si="4"/>
-        <v>1.8957817788776063</v>
+        <v>0.45557783656170892</v>
       </c>
       <c r="X14" s="4">
         <f t="shared" si="5"/>
-        <v>1.5668292283941152</v>
+        <v>0.42897126031346811</v>
       </c>
       <c r="Y14" s="4">
         <f t="shared" si="6"/>
-        <v>1.7029625943150679</v>
+        <v>0.51241469455932909</v>
       </c>
     </row>
     <row r="15" spans="2:25" s="3" customFormat="1">
@@ -2882,54 +2882,54 @@
       </c>
       <c r="K15" s="4">
         <f>C11/C15</f>
-        <v>9.1357134270946023</v>
+        <v>2.5225387666786871</v>
       </c>
       <c r="L15" s="4">
         <f>D11/D15</f>
-        <v>10.204351564049997</v>
+        <v>2.8020633555981744</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" ref="M15:P15" si="9">E11/E15</f>
-        <v>13.850814085573646</v>
+        <v>3.2641423703142745</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="9"/>
-        <v>10.499990153797681</v>
+        <v>2.5232665760816051</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="9"/>
-        <v>12.189544433176241</v>
+        <v>3.3372904611346419</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" si="9"/>
-        <v>11.445817874238259</v>
+        <v>3.4440012303196905</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T15" s="4">
         <f t="shared" si="1"/>
-        <v>1.1419641783868253</v>
+        <v>0.31531734583483589</v>
       </c>
       <c r="U15" s="4">
         <f t="shared" si="2"/>
-        <v>1.2755439455062496</v>
+        <v>0.3502579194497718</v>
       </c>
       <c r="V15" s="4">
         <f t="shared" si="3"/>
-        <v>1.7313517606967057</v>
+        <v>0.40801779628928431</v>
       </c>
       <c r="W15" s="4">
         <f t="shared" si="4"/>
-        <v>1.3124987692247101</v>
+        <v>0.31540832201020064</v>
       </c>
       <c r="X15" s="4">
         <f t="shared" si="5"/>
-        <v>1.5236930541470302</v>
+        <v>0.41716130764183024</v>
       </c>
       <c r="Y15" s="4">
         <f t="shared" si="6"/>
-        <v>1.4307272342797823</v>
+        <v>0.43050015378996132</v>
       </c>
     </row>
     <row r="16" spans="2:25" s="3" customFormat="1">
@@ -2960,54 +2960,54 @@
       </c>
       <c r="K16" s="4">
         <f>C11/C16</f>
-        <v>11.771995043370508</v>
+        <v>3.2504646840148697</v>
       </c>
       <c r="L16" s="4">
         <f>D11/D16</f>
-        <v>11.055384394927277</v>
+        <v>3.0357526689116572</v>
       </c>
       <c r="M16" s="4">
         <f t="shared" ref="M16:P16" si="10">E11/E16</f>
-        <v>12.961519382042377</v>
+        <v>3.0545673587981002</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" si="10"/>
-        <v>12.466973742664079</v>
+        <v>2.9959550141457596</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="10"/>
-        <v>10.831154145169268</v>
+        <v>2.9653862463778355</v>
       </c>
       <c r="P16" s="4">
         <f t="shared" si="10"/>
-        <v>10.67867135375565</v>
+        <v>3.2131698830619131</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="T16" s="4">
         <f t="shared" si="1"/>
-        <v>1.1771995043370507</v>
+        <v>0.32504646840148699</v>
       </c>
       <c r="U16" s="4">
         <f t="shared" si="2"/>
-        <v>1.1055384394927277</v>
+        <v>0.30357526689116571</v>
       </c>
       <c r="V16" s="4">
         <f t="shared" si="3"/>
-        <v>1.2961519382042377</v>
+        <v>0.30545673587981004</v>
       </c>
       <c r="W16" s="4">
         <f t="shared" si="4"/>
-        <v>1.2466973742664078</v>
+        <v>0.29959550141457597</v>
       </c>
       <c r="X16" s="4">
         <f t="shared" si="5"/>
-        <v>1.0831154145169268</v>
+        <v>0.29653862463778358</v>
       </c>
       <c r="Y16" s="4">
         <f t="shared" si="6"/>
-        <v>1.0678671353755651</v>
+        <v>0.32131698830619132</v>
       </c>
     </row>
     <row r="17" spans="2:25" s="3" customFormat="1">
@@ -3038,54 +3038,54 @@
       </c>
       <c r="K17" s="4">
         <f>C11/C17</f>
-        <v>10.32608695652174</v>
+        <v>2.8512228260869565</v>
       </c>
       <c r="L17" s="4">
         <f>D11/D17</f>
-        <v>11.54767250411615</v>
+        <v>3.1709324951354585</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" ref="M17:P17" si="11">E11/E17</f>
-        <v>13.745678641214489</v>
+        <v>3.2393656996843525</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="11"/>
-        <v>12.913851146794546</v>
+        <v>3.1033447165104509</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" si="11"/>
-        <v>11.722186101656021</v>
+        <v>3.2093356790453966</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" si="11"/>
-        <v>11.266806066741728</v>
+        <v>3.3901372869970006</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="T17" s="4">
         <f t="shared" si="1"/>
-        <v>0.64538043478260876</v>
+        <v>0.17820142663043478</v>
       </c>
       <c r="U17" s="4">
         <f t="shared" si="2"/>
-        <v>0.72172953150725938</v>
+        <v>0.19818328094596616</v>
       </c>
       <c r="V17" s="4">
         <f t="shared" si="3"/>
-        <v>0.85910491507590558</v>
+        <v>0.20246035623027203</v>
       </c>
       <c r="W17" s="4">
         <f t="shared" si="4"/>
-        <v>0.8071156966746591</v>
+        <v>0.19395904478190318</v>
       </c>
       <c r="X17" s="4">
         <f t="shared" si="5"/>
-        <v>0.73263663135350132</v>
+        <v>0.20058347994033729</v>
       </c>
       <c r="Y17" s="4">
         <f t="shared" si="6"/>
-        <v>0.70417537917135797</v>
+        <v>0.21188358043731254</v>
       </c>
     </row>
   </sheetData>
